--- a/Image Processing/Mare Tranquillitatis_Serenitatis Spectra.xlsx
+++ b/Image Processing/Mare Tranquillitatis_Serenitatis Spectra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenter\Dropbox\Aber Uni\Experimental Physics\Lunar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenter\Dropbox\Aber Uni\Experimental Physics\Lunar\MoonSpectroscopy\Image Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>436nm</t>
-  </si>
-  <si>
-    <t>589nm</t>
-  </si>
-  <si>
-    <t>656nm</t>
-  </si>
-  <si>
-    <t>730nm</t>
-  </si>
-  <si>
-    <t>855nm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Mare Tranquillitatis</t>
   </si>
@@ -274,8 +259,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -366,30 +351,31 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>436nm</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>589nm</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>656nm</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>730nm</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>855nm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
@@ -412,7 +398,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
@@ -504,7 +490,31 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$7</c:f>
               <c:numCache>
@@ -527,30 +537,84 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="313156192"/>
-        <c:axId val="128298368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="313156192"/>
+        <c:axId val="508749568"/>
+        <c:axId val="76679904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Wavelength in nanometers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -588,15 +652,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128298368"/>
+        <c:crossAx val="76679904"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="128298368"/>
+        <c:axId val="76679904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -614,9 +675,67 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Reflectivity (% out of 255)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -648,9 +767,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313156192"/>
+        <c:crossAx val="508749568"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -1580,7 +1699,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,35 +1709,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
+      <c r="A3" s="3">
+        <v>436</v>
       </c>
       <c r="B3" s="4">
         <v>173</v>
@@ -1637,8 +1756,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
+      <c r="A4" s="3">
+        <v>589</v>
       </c>
       <c r="B4" s="4">
         <v>178</v>
@@ -1657,8 +1776,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
+      <c r="A5" s="3">
+        <v>656</v>
       </c>
       <c r="B5" s="4">
         <v>172</v>
@@ -1677,8 +1796,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
+      <c r="A6" s="3">
+        <v>730</v>
       </c>
       <c r="B6" s="4">
         <v>140</v>
@@ -1697,8 +1816,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
+      <c r="A7" s="3">
+        <v>855</v>
       </c>
       <c r="B7" s="4">
         <v>148</v>
